--- a/biology/Médecine/Grossesse_au_cours_du_diabète_sucré/Grossesse_au_cours_du_diabète_sucré.xlsx
+++ b/biology/Médecine/Grossesse_au_cours_du_diabète_sucré/Grossesse_au_cours_du_diabète_sucré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grossesse_au_cours_du_diab%C3%A8te_sucr%C3%A9</t>
+          <t>Grossesse_au_cours_du_diabète_sucré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La grossesse au cours du diabète sucré est une grossesse à risque pour les femmes souffrant d'un diabète sucré (par exemple de type 1 ou de type 2). En effet, un mauvais équilibre glycémique de la mère au moment de la conception et pendant la grossesse augmente les risques de malformation fœtale.
 Le diabète d'une femme enceinte diabétique préalablement à la grossesse ne doit pas être confondu avec le diabète gestationnel, une intolérance au glucose qui apparait au cours de la grossesse chez une femme sans diabète sucré connu antérieurement.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grossesse_au_cours_du_diab%C3%A8te_sucr%C3%A9</t>
+          <t>Grossesse_au_cours_du_diabète_sucré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Risques pour le fœtus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dès le premier jour de la conception : durant la phase d'organogenèse, un mauvais équilibre glycémique maternel, se traduisant par une hyperglycémie et une acidocétose, peut provoquer à terme des malformations congénitales.
 Aux 2e et 3e trimestres : de la même façon un déséquilibre glycémique est susceptible d'entraîner un hyperinsulinisme fœtal, avec risque de macrosomie, hypotrophie et retard de maturation pulmonaire.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grossesse_au_cours_du_diab%C3%A8te_sucr%C3%A9</t>
+          <t>Grossesse_au_cours_du_diabète_sucré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Prise en charge diabétologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les progrès considérables réalisés dans le suivi de la grossesse des femmes diabétiques ont permis de rapprocher le taux de mortalité néonatale de celui de la population normale, et de diminuer significativement le risque de malformations.
 La grossesse d'une femme diabétique doit être programmée, de façon à obtenir avant-même la conception une glycémie comprise entre 0,80 et 1,20 g/L et un taux d'hémoglobine glyquée (HbA1C) inférieure à 7 % ou autour de 6,5 % (soit une moyenne de 1,30 g/l).
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grossesse_au_cours_du_diab%C3%A8te_sucr%C3%A9</t>
+          <t>Grossesse_au_cours_du_diabète_sucré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Surveillance obstétrique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La grossesse d'une femme diabétique doit faire l'objet d'un suivi particulier, destiné à mesurer et prévenir les risques de malformations fœtales :
 Échographie précoce vers 11-12 semaines, permettant de vérifier le terme
